--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -44,7 +44,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>tie:each(items="departments", var="department", length="8" allowAdd="false")</t>
+          <t>tie:each(items="departments", var="department", length="8" allowAdd="true")</t>
         </r>
       </text>
     </comment>
@@ -118,7 +118,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>Department:</t>
   </si>
@@ -151,9 +151,6 @@
   </si>
   <si>
     <t>${department.chief.name}</t>
-  </si>
-  <si>
-    <t>${department.headcount}</t>
   </si>
   <si>
     <t>${employee.name}</t>
@@ -1099,7 +1096,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B4" sqref="B4:D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1137,8 +1134,9 @@
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>11</v>
+      <c r="B4" s="21">
+        <f>COUNT((E8))</f>
+        <v>0</v>
       </c>
       <c r="C4" s="21"/>
       <c r="D4" s="22"/>
@@ -1149,7 +1147,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C5" s="23"/>
       <c r="D5" s="24"/>
@@ -1181,16 +1179,16 @@
     </row>
     <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="C8" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="14" t="s">
+      <c r="D8" s="15" t="s">
         <v>14</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>15</v>
       </c>
       <c r="E8" s="13" t="e">
         <f>C8*(1+D8)</f>
@@ -1199,7 +1197,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11">

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21840" windowHeight="10710" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10710" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -58,6 +58,19 @@
             <charset val="1"/>
           </rPr>
           <t>Department name</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$save{department.headAccount}</t>
         </r>
       </text>
     </comment>
@@ -178,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_)@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -381,6 +394,12 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="18">
@@ -1096,7 +1115,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:D4"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10710" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10716" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
@@ -70,7 +70,7 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t>$save{department.headAccount}</t>
+          <t>${department.headAccount}</t>
         </r>
       </text>
     </comment>
@@ -109,7 +109,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>$save{department.paymentsum}</t>
+          <t>${department.paymentsum}</t>
         </r>
       </text>
     </comment>
@@ -122,7 +122,7 @@
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t>$save{department.totalsum}</t>
+          <t>${department.totalsum}</t>
         </r>
       </text>
     </comment>
@@ -175,13 +175,13 @@
     <t>${employee.payment}</t>
   </si>
   <si>
-    <t>${employee.bonus}</t>
-  </si>
-  <si>
     <t>${department.link}</t>
   </si>
   <si>
     <t>SUB TOTALS</t>
+  </si>
+  <si>
+    <t>$init{employee.initbonus} ${employee.bonus}</t>
   </si>
 </sst>
 </file>
@@ -701,7 +701,7 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -741,6 +741,9 @@
     </xf>
     <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
@@ -1115,71 +1118,71 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="14.33203125" customWidth="1"/>
-    <col min="3" max="4" width="11.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.36328125" customWidth="1"/>
+    <col min="2" max="2" width="14.36328125" customWidth="1"/>
+    <col min="3" max="4" width="11.36328125" customWidth="1"/>
+    <col min="5" max="5" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="19"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="19"/>
-      <c r="D3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="21"/>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="21">
+      <c r="B4" s="22">
         <f>COUNT((E8))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="22"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="23"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="23"/>
-      <c r="D5" s="24"/>
+      <c r="B5" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="7"/>
       <c r="E6" s="6"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>4</v>
       </c>
@@ -1196,7 +1199,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>11</v>
       </c>
@@ -1207,16 +1210,16 @@
         <v>13</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E8" s="13" t="e">
         <f>C8*(1+D8)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B9" s="10"/>
       <c r="C9" s="11">
@@ -1229,18 +1232,11 @@
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
-      <c r="B10">
-        <v>10</v>
-      </c>
-      <c r="D10" t="e">
-        <f>E10 + B10</f>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E10" t="e">
+      <c r="E10" s="16" t="e">
         <f>SUM((E9))</f>
         <v>#VALUE!</v>
       </c>

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="10716" tabRatio="548"/>
+    <workbookView xWindow="0" yWindow="60" windowWidth="20736" windowHeight="10656" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="My_Print_Area" localSheetId="0">Template!$A$1:$F$10</definedName>
+    <definedName name="My_Print_Area" localSheetId="0">Template!$A$1:$H$10</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -87,7 +87,61 @@
         </r>
       </text>
     </comment>
-    <comment ref="E8" authorId="0">
+    <comment ref="B8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$widget.calendar{showOn="button" pattern="yyyy/MM/dd" readonlyInput="true"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$widget.dropdown{itemLabels="Male;Female" itemValues="M;F" }</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="D8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>$widget.inputnumber{symbol=" years" symbolPosition="s" minValue="0" maxValue="999" decimalPlaces="2"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>$init{employee.initbonus}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +154,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C9" authorId="0">
+    <comment ref="E9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -113,7 +167,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E9" authorId="0">
+    <comment ref="G9" authorId="0">
       <text>
         <r>
           <rPr>
@@ -131,7 +185,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
   <si>
     <t>Department:</t>
   </si>
@@ -148,9 +202,6 @@
     <t>Employee</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
     <t>Payment</t>
   </si>
   <si>
@@ -169,9 +220,6 @@
     <t>${employee.name}</t>
   </si>
   <si>
-    <t>${employee.age} years</t>
-  </si>
-  <si>
     <t>${employee.payment}</t>
   </si>
   <si>
@@ -181,7 +229,25 @@
     <t>SUB TOTALS</t>
   </si>
   <si>
-    <t>$init{employee.initbonus} ${employee.bonus}</t>
+    <t>${employee.birthDate}</t>
+  </si>
+  <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>${employee.bonus}</t>
+  </si>
+  <si>
+    <t>Working Time</t>
+  </si>
+  <si>
+    <t>${employee.worktime}</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>${employee.sex}</t>
   </si>
 </sst>
 </file>
@@ -191,7 +257,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_)@"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -204,23 +270,6 @@
       <color indexed="54"/>
       <name val="Cambria"/>
       <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color indexed="54"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Arial"/>
-      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -396,6 +445,20 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
@@ -659,118 +722,117 @@
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="30" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="10" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="11" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="11" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="9" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="10" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
   </cellXfs>
@@ -1115,138 +1177,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.36328125" customWidth="1"/>
     <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="4" width="11.36328125" customWidth="1"/>
-    <col min="5" max="5" width="12.36328125" customWidth="1"/>
+    <col min="3" max="3" width="9.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.36328125" customWidth="1"/>
+    <col min="5" max="6" width="11.36328125" customWidth="1"/>
+    <col min="7" max="7" width="12.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
+      <c r="E2" s="19"/>
+      <c r="F2" s="19"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="2"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
     </row>
-    <row r="3" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
+    <row r="4" spans="1:7" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="21">
+        <f>COUNT((G8))</f>
+        <v>0</v>
+      </c>
+      <c r="C4" s="21"/>
+      <c r="D4" s="21"/>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="1:7" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+    </row>
+    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="5"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="2"/>
+      <c r="B8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E8" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="G8" s="12" t="e">
+        <f>E8*(1+F8)</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="4" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="22">
-        <f>COUNT((E8))</f>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="10">
+        <f>SUM((E8))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="2"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="11" t="e">
+        <f>SUM((G8))</f>
+        <v>#VALUE!</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="D7" s="8" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>16</v>
-      </c>
-      <c r="E8" s="13" t="e">
-        <f>C8*(1+D8)</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="11">
-        <f>SUM((C8))</f>
-        <v>0</v>
-      </c>
-      <c r="D9" s="10"/>
-      <c r="E9" s="12" t="e">
-        <f>SUM((E8))</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="16" t="e">
-        <f>SUM((E9))</f>
+      <c r="G10" s="14" t="e">
+        <f>SUM((G9))</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="B2:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="B2:G2"/>
+    <mergeCell ref="B3:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
   </mergeCells>
   <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -61,19 +61,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>${department.headAccount}</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="A8" authorId="0">
       <text>
         <r>
@@ -127,59 +114,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="F8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>$init{employee.initbonus}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve"> $save{employee.total}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>${department.paymentsum}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G9" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>${department.totalsum}</t>
-        </r>
-      </text>
-    </comment>
   </commentList>
 </comments>
 </file>
@@ -257,7 +191,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_)@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -449,13 +383,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1180,7 +1107,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -61,6 +61,19 @@
         </r>
       </text>
     </comment>
+    <comment ref="B4" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>${department.headAccount}</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="A8" authorId="0">
       <text>
         <r>
@@ -114,6 +127,74 @@
         </r>
       </text>
     </comment>
+    <comment ref="E8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>$validate{rule="$value&gt;=100" error="payment must be greater than or equal to 100"}
+$validate{rule="$value&lt;=5000" error="payment must be less than  or equal to 5k"}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>$init{employee.initbonus}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G8" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve"> ${employee.total}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>${department.paymentsum}</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>${department.totalsum}</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -191,7 +272,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="_)@"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="32" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -383,6 +464,13 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
     <font>
       <b/>
@@ -1107,7 +1195,7 @@
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/src/main/resources/websheet/datacommentdemo.xlsx
+++ b/src/main/resources/websheet/datacommentdemo.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="60" windowWidth="20736" windowHeight="10656" tabRatio="548"/>
+    <workbookView windowWidth="19500" windowHeight="10350" tabRatio="548"/>
   </bookViews>
   <sheets>
     <sheet name="Template" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="My_Print_Area" localSheetId="0">Template!$A$1:$H$10</definedName>
+    <definedName name="My_Print_Area" localSheetId="0">Template!$A$1:$G$10</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -27,7 +27,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -40,7 +39,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -53,7 +51,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -66,9 +63,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>${department.headAccount}</t>
         </r>
@@ -79,7 +75,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -92,9 +87,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>$widget.calendar{showOn="button" pattern="yyyy/MM/dd" readonlyInput="true"}</t>
         </r>
@@ -105,9 +99,8 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>$widget.dropdown{itemLabels="Male;Female" itemValues="M;F" }</t>
         </r>
@@ -119,26 +112,10 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <family val="2"/>
+            <charset val="134"/>
           </rPr>
           <t>$widget.inputnumber{symbol=" years" symbolPosition="s" minValue="0" maxValue="999" decimalPlaces="2"}</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E8" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>$validate{rule="$value&gt;=100" error="payment must be greater than or equal to 100"}
-$validate{rule="$value&lt;=5000" error="payment must be less than  or equal to 5k"}</t>
         </r>
       </text>
     </comment>
@@ -148,7 +125,6 @@
           <rPr>
             <b/>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -161,11 +137,10 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
-          <t xml:space="preserve"> ${employee.total}</t>
+          <t xml:space="preserve"> $save{employee.total}</t>
         </r>
       </text>
     </comment>
@@ -174,7 +149,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -187,7 +161,6 @@
         <r>
           <rPr>
             <sz val="9"/>
-            <color indexed="81"/>
             <rFont val="Tahoma"/>
             <charset val="1"/>
           </rPr>
@@ -200,23 +173,41 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21">
   <si>
     <t>Department:</t>
   </si>
   <si>
+    <t>${department.name}</t>
+  </si>
+  <si>
     <t>DIRECTOR:</t>
   </si>
   <si>
+    <t>${department.chief.name}</t>
+  </si>
+  <si>
     <t>HEADCOUNT:</t>
   </si>
   <si>
     <t>URL:</t>
   </si>
   <si>
+    <t>${department.link}</t>
+  </si>
+  <si>
     <t>Employee</t>
   </si>
   <si>
+    <t>Birthday</t>
+  </si>
+  <si>
+    <t>Sex</t>
+  </si>
+  <si>
+    <t>Working Time</t>
+  </si>
+  <si>
     <t>Payment</t>
   </si>
   <si>
@@ -226,261 +217,366 @@
     <t>Total</t>
   </si>
   <si>
-    <t>${department.name}</t>
-  </si>
-  <si>
-    <t>${department.chief.name}</t>
-  </si>
-  <si>
     <t>${employee.name}</t>
   </si>
   <si>
+    <t>${employee.birthDate}</t>
+  </si>
+  <si>
+    <t>${employee.sex}</t>
+  </si>
+  <si>
+    <t>${employee.worktime}</t>
+  </si>
+  <si>
     <t>${employee.payment}</t>
   </si>
   <si>
-    <t>${department.link}</t>
+    <t>${employee.bonus}</t>
   </si>
   <si>
     <t>SUB TOTALS</t>
-  </si>
-  <si>
-    <t>${employee.birthDate}</t>
-  </si>
-  <si>
-    <t>Birthday</t>
-  </si>
-  <si>
-    <t>${employee.bonus}</t>
-  </si>
-  <si>
-    <t>Working Time</t>
-  </si>
-  <si>
-    <t>${employee.worktime}</t>
-  </si>
-  <si>
-    <t>Sex</t>
-  </si>
-  <si>
-    <t>${employee.sex}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_)@"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="178" formatCode="_)@"/>
   </numFmts>
-  <fonts count="32" x14ac:knownFonts="1">
+  <fonts count="47">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="16"/>
       <color indexed="54"/>
       <name val="Cambria"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10.5"/>
       <color indexed="54"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="63"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="30"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="8"/>
       <name val="Arial"/>
-      <family val="2"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="9"/>
       <color indexed="8"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color indexed="9"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="54"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="54"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="13"/>
       <color indexed="54"/>
       <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="54"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="17"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="62"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="10"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color indexed="54"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="9"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="18"/>
       <color indexed="54"/>
       <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Georgia"/>
-      <family val="1"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="20"/>
       <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="52"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="60"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color indexed="63"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color indexed="23"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Georgia"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Georgia"/>
+      <charset val="134"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="49">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -489,6 +585,66 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor indexed="47"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -501,7 +657,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="9"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,7 +783,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="22"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -525,7 +807,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="29"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -577,19 +865,155 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="54"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thick">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thick">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="9"/>
+      </left>
+      <right style="thin">
+        <color indexed="9"/>
+      </right>
+      <top style="thin">
+        <color indexed="9"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="9"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -608,6 +1032,59 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="29"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="29"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="double">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color indexed="63"/>
       </left>
@@ -623,15 +1100,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color indexed="52"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="22"/>
       </left>
@@ -646,263 +1114,413 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="63"/>
-      </left>
-      <right style="thin">
-        <color indexed="63"/>
-      </right>
-      <top style="thin">
-        <color indexed="63"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="63"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="29"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color indexed="29"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="double">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thick">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="9"/>
-      </left>
-      <right style="thin">
-        <color indexed="9"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="90">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="42" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="12" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="2" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="2" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="45" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="48" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="20" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="10" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="11" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="1" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="6" borderId="0" xfId="30" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="2" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="178" fontId="2" fillId="2" borderId="0" xfId="81" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
-  <cellStyles count="42">
-    <cellStyle name="20% - Акцент1" xfId="1"/>
-    <cellStyle name="20% - Акцент2" xfId="2"/>
-    <cellStyle name="20% - Акцент3" xfId="3"/>
-    <cellStyle name="20% - Акцент4" xfId="4"/>
-    <cellStyle name="20% - Акцент5" xfId="5"/>
-    <cellStyle name="20% - Акцент6" xfId="6"/>
-    <cellStyle name="40% - Акцент1" xfId="7"/>
-    <cellStyle name="40% - Акцент2" xfId="8"/>
-    <cellStyle name="40% - Акцент3" xfId="9"/>
-    <cellStyle name="40% - Акцент4" xfId="10"/>
-    <cellStyle name="40% - Акцент5" xfId="11"/>
-    <cellStyle name="40% - Акцент6" xfId="12"/>
-    <cellStyle name="60% - Акцент1" xfId="13"/>
-    <cellStyle name="60% - Акцент2" xfId="14"/>
-    <cellStyle name="60% - Акцент3" xfId="15"/>
-    <cellStyle name="60% - Акцент4" xfId="16"/>
-    <cellStyle name="60% - Акцент5" xfId="17"/>
-    <cellStyle name="60% - Акцент6" xfId="18"/>
+  <cellStyles count="90">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Акцент1" xfId="19"/>
-    <cellStyle name="Акцент2" xfId="20"/>
-    <cellStyle name="Акцент3" xfId="21"/>
-    <cellStyle name="Акцент4" xfId="22"/>
-    <cellStyle name="Акцент5" xfId="23"/>
-    <cellStyle name="Акцент6" xfId="24"/>
-    <cellStyle name="Ввод " xfId="25"/>
-    <cellStyle name="Вывод" xfId="26"/>
-    <cellStyle name="Вычисление" xfId="27"/>
-    <cellStyle name="Заголовок 1" xfId="28"/>
-    <cellStyle name="Заголовок 2" xfId="29"/>
-    <cellStyle name="Заголовок 3" xfId="30"/>
-    <cellStyle name="Заголовок 4" xfId="31"/>
-    <cellStyle name="Итог" xfId="32"/>
-    <cellStyle name="Контрольная ячейка" xfId="33"/>
-    <cellStyle name="Название" xfId="34"/>
-    <cellStyle name="Нейтральный" xfId="35"/>
-    <cellStyle name="Плохой" xfId="36"/>
-    <cellStyle name="Пояснение" xfId="37"/>
-    <cellStyle name="Примечание" xfId="38"/>
-    <cellStyle name="Связанная ячейка" xfId="39"/>
-    <cellStyle name="Текст предупреждения" xfId="40"/>
-    <cellStyle name="Хороший" xfId="41"/>
+    <cellStyle name="40% - Accent1" xfId="1" builtinId="31"/>
+    <cellStyle name="Comma" xfId="2" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="3" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Заголовок 4" xfId="5"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="60% - Акцент1" xfId="7"/>
+    <cellStyle name="Percent" xfId="8" builtinId="5"/>
+    <cellStyle name="20% - Акцент5" xfId="9"/>
+    <cellStyle name="20% - Акцент2" xfId="10"/>
+    <cellStyle name="Check Cell" xfId="11" builtinId="23"/>
+    <cellStyle name="Heading 2" xfId="12" builtinId="17"/>
+    <cellStyle name="Note" xfId="13" builtinId="10"/>
+    <cellStyle name="Hyperlink" xfId="14" builtinId="8"/>
+    <cellStyle name="60% - Accent4" xfId="15" builtinId="44"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9"/>
+    <cellStyle name="40% - Accent3" xfId="17" builtinId="39"/>
+    <cellStyle name="Warning Text" xfId="18" builtinId="11"/>
+    <cellStyle name="40% - Accent2" xfId="19" builtinId="35"/>
+    <cellStyle name="Title" xfId="20" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="21" builtinId="53"/>
+    <cellStyle name="20% - Акцент1" xfId="22"/>
+    <cellStyle name="Heading 1" xfId="23" builtinId="16"/>
+    <cellStyle name="20% - Акцент3" xfId="24"/>
+    <cellStyle name="Heading 3" xfId="25" builtinId="18"/>
+    <cellStyle name="20% - Акцент4" xfId="26"/>
+    <cellStyle name="Heading 4" xfId="27" builtinId="19"/>
+    <cellStyle name="60% - Акцент4" xfId="28"/>
+    <cellStyle name="Input" xfId="29" builtinId="20"/>
+    <cellStyle name="60% - Accent3" xfId="30" builtinId="40"/>
+    <cellStyle name="Good" xfId="31" builtinId="26"/>
+    <cellStyle name="Output" xfId="32" builtinId="21"/>
+    <cellStyle name="20% - Accent1" xfId="33" builtinId="30"/>
+    <cellStyle name="Calculation" xfId="34" builtinId="22"/>
+    <cellStyle name="Linked Cell" xfId="35" builtinId="24"/>
+    <cellStyle name="Total" xfId="36" builtinId="25"/>
+    <cellStyle name="40% - Акцент5" xfId="37"/>
+    <cellStyle name="Bad" xfId="38" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="39" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="40" builtinId="29"/>
+    <cellStyle name="20% - Accent5" xfId="41" builtinId="46"/>
+    <cellStyle name="60% - Accent1" xfId="42" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="43" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="44" builtinId="34"/>
+    <cellStyle name="Связанная ячейка" xfId="45"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="60% - Accent2" xfId="47" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="48" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="49" builtinId="38"/>
+    <cellStyle name="Хороший" xfId="50"/>
+    <cellStyle name="Accent4" xfId="51" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="52" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="53" builtinId="43"/>
+    <cellStyle name="Accent5" xfId="54" builtinId="45"/>
+    <cellStyle name="40% - Accent5" xfId="55" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="56" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="57" builtinId="49"/>
+    <cellStyle name="40% - Accent6" xfId="58" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="59" builtinId="52"/>
+    <cellStyle name="60% - Акцент2" xfId="60"/>
+    <cellStyle name="20% - Акцент6" xfId="61"/>
+    <cellStyle name="40% - Акцент1" xfId="62"/>
+    <cellStyle name="40% - Акцент2" xfId="63"/>
+    <cellStyle name="40% - Акцент3" xfId="64"/>
+    <cellStyle name="40% - Акцент4" xfId="65"/>
+    <cellStyle name="40% - Акцент6" xfId="66"/>
+    <cellStyle name="60% - Акцент3" xfId="67"/>
+    <cellStyle name="60% - Акцент5" xfId="68"/>
+    <cellStyle name="60% - Акцент6" xfId="69"/>
+    <cellStyle name="Акцент1" xfId="70"/>
+    <cellStyle name="Акцент2" xfId="71"/>
+    <cellStyle name="Акцент3" xfId="72"/>
+    <cellStyle name="Акцент4" xfId="73"/>
+    <cellStyle name="Акцент5" xfId="74"/>
+    <cellStyle name="Акцент6" xfId="75"/>
+    <cellStyle name="Ввод " xfId="76"/>
+    <cellStyle name="Вывод" xfId="77"/>
+    <cellStyle name="Вычисление" xfId="78"/>
+    <cellStyle name="Заголовок 1" xfId="79"/>
+    <cellStyle name="Заголовок 2" xfId="80"/>
+    <cellStyle name="Заголовок 3" xfId="81"/>
+    <cellStyle name="Итог" xfId="82"/>
+    <cellStyle name="Контрольная ячейка" xfId="83"/>
+    <cellStyle name="Название" xfId="84"/>
+    <cellStyle name="Нейтральный" xfId="85"/>
+    <cellStyle name="Плохой" xfId="86"/>
+    <cellStyle name="Пояснение" xfId="87"/>
+    <cellStyle name="Примечание" xfId="88"/>
+    <cellStyle name="Текст предупреждения" xfId="89"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>731520</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>495300</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>608700</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2391410" y="91440"/>
+          <a:ext cx="1820545" cy="516890"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1186,173 +1804,181 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr/>
   <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="B2" sqref="B2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.81481481481481" defaultRowHeight="14.25" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="1" width="19.36328125" customWidth="1"/>
-    <col min="2" max="2" width="14.36328125" customWidth="1"/>
-    <col min="3" max="3" width="9.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.36328125" customWidth="1"/>
-    <col min="5" max="6" width="11.36328125" customWidth="1"/>
-    <col min="7" max="7" width="12.36328125" customWidth="1"/>
+    <col min="1" max="1" width="19.362962962963" customWidth="1"/>
+    <col min="2" max="2" width="14.362962962963" customWidth="1"/>
+    <col min="3" max="3" width="9.62962962962963" customWidth="1"/>
+    <col min="4" max="4" width="14.362962962963" customWidth="1"/>
+    <col min="5" max="6" width="11.362962962963" customWidth="1"/>
+    <col min="7" max="7" width="12.362962962963" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="1" ht="54" customHeight="1" spans="1:4">
+      <c r="A1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+    </row>
+    <row r="2" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="19"/>
-      <c r="D2" s="19"/>
-      <c r="E2" s="19"/>
-      <c r="F2" s="19"/>
-      <c r="G2" s="19"/>
+      <c r="B2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="3"/>
+      <c r="G2" s="3"/>
     </row>
-    <row r="3" spans="1:7" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="20"/>
+    <row r="3" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A3" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" ht="37.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="21">
+    <row r="4" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A4" s="6" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="7">
         <f>COUNT((G8))</f>
         <v>0</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
     </row>
-    <row r="5" spans="1:7" ht="37.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="22" t="s">
+    <row r="5" ht="37.5" customHeight="1" spans="1:7">
+      <c r="A5" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+    </row>
+    <row r="6" ht="18.75" customHeight="1" spans="1:7">
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
+      <c r="G7" s="12" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="6" spans="1:7" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="5"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
+    <row r="8" ht="25.5" customHeight="1" spans="1:7">
+      <c r="A8" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C8" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="E8" s="15" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="12" t="e">
+      <c r="G8" s="18" t="e">
         <f>E8*(1+F8)</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="9"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="10">
+    <row r="9" spans="1:7">
+      <c r="A9" s="19" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="21">
         <f>SUM((E8))</f>
         <v>0</v>
       </c>
-      <c r="F9" s="9"/>
-      <c r="G9" s="11" t="e">
+      <c r="F9" s="20"/>
+      <c r="G9" s="22" t="e">
         <f>SUM((G8))</f>
         <v>#VALUE!</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7">
       <c r="A10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G10" s="14" t="e">
+        <v>13</v>
+      </c>
+      <c r="G10" s="23" t="e">
         <f>SUM((G9))</f>
         <v>#VALUE!</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
+    <mergeCell ref="B1:D1"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B3:G3"/>
     <mergeCell ref="B4:G4"/>
     <mergeCell ref="B5:G5"/>
   </mergeCells>
-  <pageMargins left="0.69861111111111107" right="0.69861111111111107" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.698611111111111" right="0.698611111111111" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>